--- a/data/trans_orig/P2A_ner_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_ner_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30502</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21029</v>
+        <v>21624</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44194</v>
+        <v>43172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05221729436797208</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03599933462788633</v>
+        <v>0.0370190901440036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07565721752026836</v>
+        <v>0.07390718359196867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -765,19 +765,19 @@
         <v>72341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59577</v>
+        <v>58344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92125</v>
+        <v>89935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07843292281104645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06459402223228899</v>
+        <v>0.06325707198926515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09988306358189088</v>
+        <v>0.09750824688823172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -786,19 +786,19 @@
         <v>102844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82093</v>
+        <v>83598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123328</v>
+        <v>123149</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06826771013932413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05449352805862001</v>
+        <v>0.05549250475551822</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08186547257885107</v>
+        <v>0.08174645091362542</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>553639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>539947</v>
+        <v>540969</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563112</v>
+        <v>562517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9477827056320279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.92434278247973</v>
+        <v>0.9260928164080312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9640006653721134</v>
+        <v>0.9629809098559964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>814</v>
@@ -836,19 +836,19 @@
         <v>849992</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>830208</v>
+        <v>832398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>862756</v>
+        <v>863989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9215670771889536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.900116936418109</v>
+        <v>0.9024917531117683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9354059777677109</v>
+        <v>0.9367429280107347</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -857,19 +857,19 @@
         <v>1403630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1383146</v>
+        <v>1383325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1424381</v>
+        <v>1422876</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9317322898606759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.918134527421149</v>
+        <v>0.9182535490863738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9455064719413799</v>
+        <v>0.9445074952444817</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>34255</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24441</v>
+        <v>24127</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48297</v>
+        <v>49176</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03177938338669384</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02267489361403498</v>
+        <v>0.02238389457491496</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04480677296883054</v>
+        <v>0.04562218980475508</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>43959</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31715</v>
+        <v>31913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59817</v>
+        <v>58267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.041567396346411</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02998918900820055</v>
+        <v>0.03017673835641965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05656296706828046</v>
+        <v>0.05509637260320901</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -1003,19 +1003,19 @@
         <v>78214</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62638</v>
+        <v>60505</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>98048</v>
+        <v>95335</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03662673769581626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02933289376007218</v>
+        <v>0.02833375618297723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04591493519219707</v>
+        <v>0.04464428537956795</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1043639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1029597</v>
+        <v>1028718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1053453</v>
+        <v>1053767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9682206166133062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9551932270311692</v>
+        <v>0.9543778101952448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9773251063859649</v>
+        <v>0.977616105425085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>987</v>
@@ -1053,19 +1053,19 @@
         <v>1013579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>997721</v>
+        <v>999271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025823</v>
+        <v>1025625</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.958432603653589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9434370329317201</v>
+        <v>0.9449036273967912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9700108109917998</v>
+        <v>0.9698232616435803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2008</v>
@@ -1074,19 +1074,19 @@
         <v>2057218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2037384</v>
+        <v>2040097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2072794</v>
+        <v>2074927</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9633732623041837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.954085064807803</v>
+        <v>0.9553557146204321</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9706671062399278</v>
+        <v>0.9716662438170227</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20807</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12928</v>
+        <v>12886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31033</v>
+        <v>31398</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01855153093356007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01152606598807066</v>
+        <v>0.01148872464939827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02766835712365697</v>
+        <v>0.02799411309920079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -1199,19 +1199,19 @@
         <v>28040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19266</v>
+        <v>18754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41222</v>
+        <v>40089</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02821123460991187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01938387129330956</v>
+        <v>0.01886848743413164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04147341898946566</v>
+        <v>0.04033389741679454</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -1220,19 +1220,19 @@
         <v>48848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36784</v>
+        <v>35150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63603</v>
+        <v>64694</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02308994184857214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01738780102919538</v>
+        <v>0.01661503476663977</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03006466381082721</v>
+        <v>0.03058064686574332</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1100787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1090561</v>
+        <v>1090196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1108666</v>
+        <v>1108708</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9814484690664399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.972331642876343</v>
+        <v>0.9720058869007991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9884739340119294</v>
+        <v>0.9885112753506009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>954</v>
@@ -1270,19 +1270,19 @@
         <v>965900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>952718</v>
+        <v>953851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>974674</v>
+        <v>975186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9717887653900882</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9585265810105343</v>
+        <v>0.9596661025832054</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9806161287066905</v>
+        <v>0.9811315125658683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2036</v>
@@ -1291,19 +1291,19 @@
         <v>2066686</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2051931</v>
+        <v>2050840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2078750</v>
+        <v>2080384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9769100581514278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9699353361891728</v>
+        <v>0.9694193531342566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9826121989708045</v>
+        <v>0.9833849652333603</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4577</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9979</v>
+        <v>10134</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01023436015950609</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003724732316024309</v>
+        <v>0.003769774302680913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02231388487458245</v>
+        <v>0.02266094977302745</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1416,19 +1416,19 @@
         <v>9717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4087</v>
+        <v>4762</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17205</v>
+        <v>18198</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02848183016086341</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01197924482379315</v>
+        <v>0.01395807449676655</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05043053725497892</v>
+        <v>0.05334053369925314</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>14294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8107</v>
+        <v>8196</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23319</v>
+        <v>24045</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01813086742897175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01028329439705471</v>
+        <v>0.01039608483798245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02957875076629661</v>
+        <v>0.03050054394287174</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>442623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>437221</v>
+        <v>437066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>445534</v>
+        <v>445514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9897656398404939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9776861151254178</v>
+        <v>0.9773390502269732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9962752676839757</v>
+        <v>0.9962302256973191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>330</v>
@@ -1487,19 +1487,19 @@
         <v>331441</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323953</v>
+        <v>322960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337071</v>
+        <v>336396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9715181698391366</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9495694627450213</v>
+        <v>0.9466594663007468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.988020755176207</v>
+        <v>0.9860419255032334</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>761</v>
@@ -1508,19 +1508,19 @@
         <v>774064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>765039</v>
+        <v>764313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>780251</v>
+        <v>780162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9818691325710283</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9704212492337033</v>
+        <v>0.9694994560571282</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897167056029452</v>
+        <v>0.9896039151620174</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>90141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72995</v>
+        <v>71434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108321</v>
+        <v>109264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02790032329667456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02259340898286951</v>
+        <v>0.02211004369947931</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03352744160682427</v>
+        <v>0.03381904917467411</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -1633,19 +1633,19 @@
         <v>154057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129697</v>
+        <v>132249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>178899</v>
+        <v>178934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04647327347759292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03912467912867364</v>
+        <v>0.03989443307821185</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05396698500394036</v>
+        <v>0.05397768274934824</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -1654,19 +1654,19 @@
         <v>244199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>214470</v>
+        <v>214298</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277356</v>
+        <v>276341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03730616650594062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03276460143627032</v>
+        <v>0.03273819759162729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04237168166127955</v>
+        <v>0.04221660251395604</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3140688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3122508</v>
+        <v>3121565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3157834</v>
+        <v>3159395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9720996767033254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9664725583931757</v>
+        <v>0.9661809508253256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9774065910171308</v>
+        <v>0.9778899563005207</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3085</v>
@@ -1704,19 +1704,19 @@
         <v>3160912</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3136070</v>
+        <v>3136035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3185272</v>
+        <v>3182720</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9535267265224071</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9460330149960596</v>
+        <v>0.9460223172506519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9608753208713264</v>
+        <v>0.9601055669217882</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6163</v>
@@ -1725,19 +1725,19 @@
         <v>6301599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6268442</v>
+        <v>6269457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6331328</v>
+        <v>6331500</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9626938334940593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9576283183387204</v>
+        <v>0.957783397486044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9672353985637296</v>
+        <v>0.9672618024083727</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>37772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27435</v>
+        <v>26762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50940</v>
+        <v>51989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03618230198504339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02628030259319287</v>
+        <v>0.02563573916635842</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04879595364829326</v>
+        <v>0.04980087242181695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2090,19 +2090,19 @@
         <v>87719</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70889</v>
+        <v>70825</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107939</v>
+        <v>109056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07832554623257838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06329784872216825</v>
+        <v>0.06324060063714682</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09637990261283888</v>
+        <v>0.0973776314834922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -2111,19 +2111,19 @@
         <v>125491</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102410</v>
+        <v>103155</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147955</v>
+        <v>151600</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05799394667177354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04732720797375985</v>
+        <v>0.0476717236536127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06837550713878829</v>
+        <v>0.07005986924566487</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1006163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>992995</v>
+        <v>991946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1016500</v>
+        <v>1017173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9638176980149566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512040463517067</v>
+        <v>0.9501991275781831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9737196974068071</v>
+        <v>0.9743642608336416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>949</v>
@@ -2161,19 +2161,19 @@
         <v>1032209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1011989</v>
+        <v>1010872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1049039</v>
+        <v>1049103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9216744537674216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9036200973871611</v>
+        <v>0.9026223685165078</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9367021512778316</v>
+        <v>0.9367593993628531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1891</v>
@@ -2182,19 +2182,19 @@
         <v>2038372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2015908</v>
+        <v>2012263</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2061453</v>
+        <v>2060708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9420060533282265</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9316244928612117</v>
+        <v>0.929940130754335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9526727920262402</v>
+        <v>0.9523282763463873</v>
       </c>
     </row>
     <row r="6">
@@ -2289,16 +2289,16 @@
         <v>25356</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50676</v>
+        <v>50733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0373249978741736</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02595141739665719</v>
+        <v>0.0259513956804747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0518654831448955</v>
+        <v>0.0519233399149979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -2307,19 +2307,19 @@
         <v>50324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38266</v>
+        <v>37726</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66011</v>
+        <v>66114</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04598860808232398</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03496981361070881</v>
+        <v>0.03447607723847592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06032444754471781</v>
+        <v>0.06041911238380615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -2328,19 +2328,19 @@
         <v>86793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68357</v>
+        <v>68573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107054</v>
+        <v>104593</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04190188237496435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03300165254063015</v>
+        <v>0.03310562443559941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05168378505550186</v>
+        <v>0.05049557901066692</v>
       </c>
     </row>
     <row r="8">
@@ -2357,7 +2357,7 @@
         <v>940604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926397</v>
+        <v>926340</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>951717</v>
@@ -2366,10 +2366,10 @@
         <v>0.9626750021258264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9481345168551049</v>
+        <v>0.9480766600850022</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9740485826033428</v>
+        <v>0.9740486043195253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>971</v>
@@ -2378,19 +2378,19 @@
         <v>1043938</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028251</v>
+        <v>1028148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1055996</v>
+        <v>1056536</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.954011391917676</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9396755524552819</v>
+        <v>0.9395808876161938</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9650301863892907</v>
+        <v>0.965523922761524</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1861</v>
@@ -2399,19 +2399,19 @@
         <v>1984542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1964281</v>
+        <v>1966742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2002978</v>
+        <v>2002762</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9580981176250356</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9483162149444979</v>
+        <v>0.9495044209893333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9669983474593694</v>
+        <v>0.9668943755644006</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>22087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13996</v>
+        <v>13121</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35127</v>
+        <v>34143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02495402901824941</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01581312294660444</v>
+        <v>0.01482363215373873</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03968662642979971</v>
+        <v>0.03857511062976569</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2524,19 +2524,19 @@
         <v>25156</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16165</v>
+        <v>16795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36044</v>
+        <v>35763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02872382338675976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01845717374140009</v>
+        <v>0.01917731496406945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04115618457738817</v>
+        <v>0.04083514352826898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -2545,19 +2545,19 @@
         <v>47243</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34580</v>
+        <v>34649</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64307</v>
+        <v>62011</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02682895069970564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01963774639335687</v>
+        <v>0.01967674097955024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03651935130573242</v>
+        <v>0.03521551268723856</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>863028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>849988</v>
+        <v>850972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>871119</v>
+        <v>871994</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9750459709817506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9603133735702001</v>
+        <v>0.9614248893702341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841868770533955</v>
+        <v>0.9851763678462613</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>796</v>
@@ -2595,19 +2595,19 @@
         <v>850640</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>839752</v>
+        <v>840033</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>859631</v>
+        <v>859001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9712761766132403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.958843815422611</v>
+        <v>0.9591648564717312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9815428262585998</v>
+        <v>0.9808226850359308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1606</v>
@@ -2616,19 +2616,19 @@
         <v>1713668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1696604</v>
+        <v>1698900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1726331</v>
+        <v>1726262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9731710493002943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9634806486942675</v>
+        <v>0.9647844873127615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9803622536066431</v>
+        <v>0.9803232590204498</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>8889</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4732</v>
+        <v>3998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16742</v>
+        <v>16391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.017672151466158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009407197320528738</v>
+        <v>0.007947950393288546</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03328373722270755</v>
+        <v>0.03258444140120911</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2741,19 +2741,19 @@
         <v>11371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5949</v>
+        <v>6075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20141</v>
+        <v>20812</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02511708047396842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01313962737856529</v>
+        <v>0.01341868901002587</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04448810911507115</v>
+        <v>0.04597006146024163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -2762,19 +2762,19 @@
         <v>20261</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12367</v>
+        <v>12479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31879</v>
+        <v>30618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02119875905378282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01293906130277702</v>
+        <v>0.01305709543705011</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03335493204196871</v>
+        <v>0.03203498976036262</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>494134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486281</v>
+        <v>486632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498291</v>
+        <v>499025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.982327848533842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9667162627772922</v>
+        <v>0.967415558598791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905928026794713</v>
+        <v>0.9920520496067115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -2812,19 +2812,19 @@
         <v>441365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432595</v>
+        <v>431924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>446787</v>
+        <v>446661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9748829195260316</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9555118908849289</v>
+        <v>0.9540299385397584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868603726214347</v>
+        <v>0.9865813109899741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>854</v>
@@ -2833,19 +2833,19 @@
         <v>935497</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>923879</v>
+        <v>925140</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>943391</v>
+        <v>943279</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9788012409462172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9666450679580314</v>
+        <v>0.9679650102396374</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987060938697223</v>
+        <v>0.9869429045629499</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>105218</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85012</v>
+        <v>85373</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128219</v>
+        <v>127366</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03086342034069723</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0249365270479518</v>
+        <v>0.02504243182024626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03761038829412785</v>
+        <v>0.03736004401856545</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -2958,19 +2958,19 @@
         <v>174570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149384</v>
+        <v>149732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200717</v>
+        <v>203142</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04927572583265909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04216645324296175</v>
+        <v>0.04226454474316326</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05665608650601632</v>
+        <v>0.05734057362329696</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>265</v>
@@ -2979,19 +2979,19 @@
         <v>279788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>246482</v>
+        <v>247578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>313901</v>
+        <v>318370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04024646456659409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03545558025402021</v>
+        <v>0.03561312386056954</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04515346988371406</v>
+        <v>0.04579634907326396</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3303927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3280926</v>
+        <v>3281779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3324133</v>
+        <v>3323772</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9691365796593028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9623896117058717</v>
+        <v>0.9626399559814347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9750634729520482</v>
+        <v>0.9749575681797541</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3118</v>
@@ -3029,19 +3029,19 @@
         <v>3368152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3342005</v>
+        <v>3339580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3393338</v>
+        <v>3392990</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.950724274167341</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9433439134939827</v>
+        <v>0.9426594263767032</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9578335467570381</v>
+        <v>0.9577354552568368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6212</v>
@@ -3050,19 +3050,19 @@
         <v>6672079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6637966</v>
+        <v>6633497</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6705385</v>
+        <v>6704289</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9597535354334059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.954846530116286</v>
+        <v>0.9542036509267361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9645444197459798</v>
+        <v>0.9643868761394305</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>72789</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57607</v>
+        <v>57544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90149</v>
+        <v>93401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06452957321053336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.051069871492778</v>
+        <v>0.05101471431015253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07991939787280056</v>
+        <v>0.08280282824117266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>187</v>
@@ -3415,19 +3415,19 @@
         <v>206579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181660</v>
+        <v>178692</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236725</v>
+        <v>236691</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1640085245459587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1442250191406876</v>
+        <v>0.1418687026597836</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1879426140629969</v>
+        <v>0.1879153492030624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -3436,19 +3436,19 @@
         <v>279368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>249260</v>
+        <v>248867</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312790</v>
+        <v>312683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1170098834400261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1043995695087407</v>
+        <v>0.1042349575435266</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1310082970256363</v>
+        <v>0.1309633735998819</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1055208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1037848</v>
+        <v>1034596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1070390</v>
+        <v>1070453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9354704267894667</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9200806021271994</v>
+        <v>0.9171971717588271</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.948930128507222</v>
+        <v>0.9489852856898473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1001</v>
@@ -3486,19 +3486,19 @@
         <v>1052982</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1022836</v>
+        <v>1022870</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1077901</v>
+        <v>1080869</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8359914754540413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8120573859370032</v>
+        <v>0.8120846507969376</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8557749808593125</v>
+        <v>0.8581312973402164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1997</v>
@@ -3507,19 +3507,19 @@
         <v>2108190</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2074768</v>
+        <v>2074875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2138298</v>
+        <v>2138691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8829901165599739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8689917029743639</v>
+        <v>0.8690366264001181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8956004304912593</v>
+        <v>0.8957650424564734</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>40934</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29955</v>
+        <v>29655</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54905</v>
+        <v>53810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04504010654819443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03296044537895774</v>
+        <v>0.03263031530753591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06041303564409839</v>
+        <v>0.05920850178090664</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -3632,19 +3632,19 @@
         <v>83211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67381</v>
+        <v>67392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101098</v>
+        <v>101497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08267601419205389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06694763575357554</v>
+        <v>0.06695831688276609</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1004480175800628</v>
+        <v>0.1008438291746959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -3653,19 +3653,19 @@
         <v>124145</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105497</v>
+        <v>104059</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149344</v>
+        <v>146543</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06481748336461605</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0550812761068657</v>
+        <v>0.05433030547283776</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07797441242795518</v>
+        <v>0.07651189834495362</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>867891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>853920</v>
+        <v>855015</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>878870</v>
+        <v>879170</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9549598934518055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9395869643559015</v>
+        <v>0.9407914982190934</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9670395546210422</v>
+        <v>0.9673696846924641</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>871</v>
@@ -3703,19 +3703,19 @@
         <v>923264</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>905377</v>
+        <v>904978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>939094</v>
+        <v>939083</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9173239858079461</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8995519824199372</v>
+        <v>0.8991561708253041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9330523642464245</v>
+        <v>0.9330416831172339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1711</v>
@@ -3724,19 +3724,19 @@
         <v>1791155</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1765956</v>
+        <v>1768757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1809803</v>
+        <v>1811241</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.935182516635384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9220255875720447</v>
+        <v>0.9234881016550465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9449187238931342</v>
+        <v>0.9456696945271625</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>25209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17268</v>
+        <v>16697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35989</v>
+        <v>36560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03060224052787136</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02096250386725021</v>
+        <v>0.02026903450441331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04368927306245308</v>
+        <v>0.04438194383053756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3849,19 +3849,19 @@
         <v>63160</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48453</v>
+        <v>46302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81186</v>
+        <v>79316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08191353917564051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06283928470142212</v>
+        <v>0.06004979076996932</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1052912453276692</v>
+        <v>0.1028665797844415</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -3870,19 +3870,19 @@
         <v>88369</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70709</v>
+        <v>71913</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110499</v>
+        <v>110249</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05541010155371864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04433668331617808</v>
+        <v>0.04509147106987671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06928623118482295</v>
+        <v>0.06912939927643919</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>798550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>787770</v>
+        <v>787199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>806491</v>
+        <v>807062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9693977594721287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9563107269375469</v>
+        <v>0.9556180561694626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9790374961327498</v>
+        <v>0.9797309654955867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>673</v>
@@ -3920,19 +3920,19 @@
         <v>707899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>689873</v>
+        <v>691743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>722606</v>
+        <v>724757</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9180864608243595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8947087546723309</v>
+        <v>0.8971334202155585</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.937160715298578</v>
+        <v>0.9399502092300307</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1435</v>
@@ -3941,19 +3941,19 @@
         <v>1506449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1484319</v>
+        <v>1484569</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1524109</v>
+        <v>1522905</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9445898984462814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9307137688151771</v>
+        <v>0.9308706007235608</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.955663316683822</v>
+        <v>0.9549085289301233</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>11460</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5758</v>
+        <v>5560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20117</v>
+        <v>20398</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02261612256038759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01136374848199001</v>
+        <v>0.01097303389248772</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03970250553473964</v>
+        <v>0.04025688446848732</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -4066,19 +4066,19 @@
         <v>34168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23713</v>
+        <v>23291</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47363</v>
+        <v>47716</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06977285471817513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04842317739531205</v>
+        <v>0.04756294314761089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09671951318936806</v>
+        <v>0.09743928555203288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -4087,19 +4087,19 @@
         <v>45627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33433</v>
+        <v>33562</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60851</v>
+        <v>61406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.045792128322996</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03355396552794774</v>
+        <v>0.03368337102554864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06107054841677127</v>
+        <v>0.06162817176067863</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>495241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486584</v>
+        <v>486303</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>500943</v>
+        <v>501141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9773838774396124</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9602974944652605</v>
+        <v>0.9597431155315128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9886362515180104</v>
+        <v>0.9890269661075126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>424</v>
@@ -4137,19 +4137,19 @@
         <v>455530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>442335</v>
+        <v>441982</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>465985</v>
+        <v>466407</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9302271452818248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.903280486810632</v>
+        <v>0.9025607144479671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.951576822604688</v>
+        <v>0.9524370568523893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>885</v>
@@ -4158,19 +4158,19 @@
         <v>950771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>935547</v>
+        <v>934992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>962965</v>
+        <v>962836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.954207871677004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9389294515832288</v>
+        <v>0.9383718282393211</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9664460344720524</v>
+        <v>0.9663166289744513</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>150391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127314</v>
+        <v>126340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173559</v>
+        <v>176771</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0446624975125343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03780912113332937</v>
+        <v>0.03751988262131111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0515426977624101</v>
+        <v>0.05249656263832984</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>353</v>
@@ -4283,19 +4283,19 @@
         <v>387118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>350000</v>
+        <v>349033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>426396</v>
+        <v>426166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1097648440664263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09924030498536972</v>
+        <v>0.09896605252569537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1209020359791627</v>
+        <v>0.1208366611966659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>499</v>
@@ -4304,19 +4304,19 @@
         <v>537509</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>496853</v>
+        <v>491617</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>586924</v>
+        <v>581794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07796681625971466</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07206952441294795</v>
+        <v>0.07131005329364264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0851345040219126</v>
+        <v>0.0843904574392115</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3216891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3193723</v>
+        <v>3190511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3239968</v>
+        <v>3240942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9553375024874657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9484573022375901</v>
+        <v>0.9475034373616701</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9621908788666711</v>
+        <v>0.9624801173786889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2969</v>
@@ -4354,19 +4354,19 @@
         <v>3139674</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3100396</v>
+        <v>3100626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3176792</v>
+        <v>3177759</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8902351559335737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8790979640208373</v>
+        <v>0.8791633388033337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.90075969501463</v>
+        <v>0.9010339474743045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6028</v>
@@ -4375,19 +4375,19 @@
         <v>6356566</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6307151</v>
+        <v>6312281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6397222</v>
+        <v>6402458</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9220331837402853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9148654959780873</v>
+        <v>0.9156095425607885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.927930475587052</v>
+        <v>0.9286899467063574</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>44447</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32801</v>
+        <v>33054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62967</v>
+        <v>61977</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08911940973243965</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0657677985109593</v>
+        <v>0.06627603897829597</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.126251861512273</v>
+        <v>0.1242683402791713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -4740,19 +4740,19 @@
         <v>49068</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39865</v>
+        <v>38203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60923</v>
+        <v>60200</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07868758996956569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06392971840724655</v>
+        <v>0.06126385889681995</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09769941541131699</v>
+        <v>0.09653966102944074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -4761,19 +4761,19 @@
         <v>93515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78102</v>
+        <v>75929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115549</v>
+        <v>115065</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08332330947630646</v>
+        <v>0.08332330947630648</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06958966911521129</v>
+        <v>0.06765333065632012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1029554541713515</v>
+        <v>0.1025237945323133</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>454292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>435772</v>
+        <v>436762</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>465938</v>
+        <v>465685</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9108805902675604</v>
+        <v>0.9108805902675603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8737481384877271</v>
+        <v>0.8757316597208287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9342322014890407</v>
+        <v>0.9337239610217042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>786</v>
@@ -4811,19 +4811,19 @@
         <v>574512</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>562657</v>
+        <v>563380</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583715</v>
+        <v>585377</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9213124100304341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9023005845886831</v>
+        <v>0.9034603389705593</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9360702815927536</v>
+        <v>0.9387361411031799</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1201</v>
@@ -4832,19 +4832,19 @@
         <v>1028805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1006771</v>
+        <v>1007255</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1044218</v>
+        <v>1046391</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9166766905236936</v>
+        <v>0.9166766905236935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8970445458286483</v>
+        <v>0.897476205467687</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9304103308847886</v>
+        <v>0.93234666934368</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>25310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17394</v>
+        <v>16053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37336</v>
+        <v>36232</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02636113883757866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01811567547435139</v>
+        <v>0.01671952630819273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03888588173081518</v>
+        <v>0.03773657540977521</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -4957,19 +4957,19 @@
         <v>52541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41939</v>
+        <v>41981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66499</v>
+        <v>65426</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04708620042014084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03758523297393988</v>
+        <v>0.03762218951482423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05959538651800437</v>
+        <v>0.0586331853460533</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>107</v>
@@ -4978,19 +4978,19 @@
         <v>77851</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63356</v>
+        <v>63249</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94506</v>
+        <v>95076</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03750092774650656</v>
+        <v>0.03750092774650655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03051841630677271</v>
+        <v>0.0304669628040624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04552353529497614</v>
+        <v>0.04579808756233334</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>934827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>922801</v>
+        <v>923905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942743</v>
+        <v>944084</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9736388611624214</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611141182691849</v>
+        <v>0.9622634245902247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818843245256486</v>
+        <v>0.9832804736918072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1527</v>
@@ -5028,19 +5028,19 @@
         <v>1063308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1049350</v>
+        <v>1050423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1073910</v>
+        <v>1073868</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9529137995798591</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9404046134819959</v>
+        <v>0.9413668146539467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9624147670260602</v>
+        <v>0.962377810485176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2410</v>
@@ -5049,19 +5049,19 @@
         <v>1998135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1981480</v>
+        <v>1980910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2012630</v>
+        <v>2012737</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9624990722534936</v>
+        <v>0.9624990722534934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9544764647050233</v>
+        <v>0.9542019124376668</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9694815836932273</v>
+        <v>0.9695330371959375</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>25157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16517</v>
+        <v>17022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36921</v>
+        <v>36569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02403932456570844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01578343093987059</v>
+        <v>0.01626639175807258</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03528147426475717</v>
+        <v>0.03494523449282691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -5174,19 +5174,19 @@
         <v>36750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27141</v>
+        <v>26913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49915</v>
+        <v>50008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03507885664105369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02590716586590981</v>
+        <v>0.02568897479730535</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04764518302079367</v>
+        <v>0.047733950278398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -5195,19 +5195,19 @@
         <v>61907</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49627</v>
+        <v>48405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80690</v>
+        <v>79662</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02956215439027243</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02369845475958093</v>
+        <v>0.02311453508974069</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.038531632940326</v>
+        <v>0.03804056479113265</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1021322</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1009558</v>
+        <v>1009910</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1029962</v>
+        <v>1029457</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9759606754342915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9647185257352426</v>
+        <v>0.9650547655071731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842165690601294</v>
+        <v>0.9837336082419275</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1464</v>
@@ -5245,19 +5245,19 @@
         <v>1010892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>997727</v>
+        <v>997634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1020501</v>
+        <v>1020729</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9649211433589462</v>
+        <v>0.9649211433589463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9523548169792064</v>
+        <v>0.9522660497216018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.97409283413409</v>
+        <v>0.9743110252026945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2466</v>
@@ -5266,19 +5266,19 @@
         <v>2032214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2013431</v>
+        <v>2014459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2044494</v>
+        <v>2045716</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9704378456097276</v>
+        <v>0.9704378456097277</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.961468367059674</v>
+        <v>0.9619594352088673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.976301545240419</v>
+        <v>0.9768854649102592</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15463</v>
+        <v>16076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37892</v>
+        <v>38812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02616815847490291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01584396138348566</v>
+        <v>0.01647201544575953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03882683053524566</v>
+        <v>0.03976957561135628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -5391,19 +5391,19 @@
         <v>38384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30551</v>
+        <v>28599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50740</v>
+        <v>49711</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0421637594378529</v>
+        <v>0.04216375943785289</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03355965334697541</v>
+        <v>0.03141551273356917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05573690682108324</v>
+        <v>0.05460681250317063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -5412,19 +5412,19 @@
         <v>63922</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49931</v>
+        <v>51112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80440</v>
+        <v>81298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03388788200993071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02647083880955786</v>
+        <v>0.02709668650586989</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04264473261596663</v>
+        <v>0.04310001993059025</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>950391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>938037</v>
+        <v>937117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>960466</v>
+        <v>959853</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9738318415250972</v>
+        <v>0.9738318415250971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9611731694647545</v>
+        <v>0.9602304243886436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9841560386165145</v>
+        <v>0.9835279845542404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1268</v>
@@ -5462,19 +5462,19 @@
         <v>871961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>859605</v>
+        <v>860634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>879794</v>
+        <v>881746</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9578362405621472</v>
+        <v>0.9578362405621471</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9442630931789167</v>
+        <v>0.9453931874968293</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9664403466530246</v>
+        <v>0.9685844872664309</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2191</v>
@@ -5483,19 +5483,19 @@
         <v>1822352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1805834</v>
+        <v>1804976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1836343</v>
+        <v>1835162</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9661121179900694</v>
+        <v>0.9661121179900692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9573552673840329</v>
+        <v>0.9568999800694095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9735291611904416</v>
+        <v>0.9729033134941291</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>120453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100463</v>
+        <v>100153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144245</v>
+        <v>145485</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03460003866531697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02885809895311037</v>
+        <v>0.02876904885677355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0414343564788097</v>
+        <v>0.04179061443114865</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -5608,19 +5608,19 @@
         <v>176743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156165</v>
+        <v>155587</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>200144</v>
+        <v>201392</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04780169778054079</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04223620238221722</v>
+        <v>0.04207995152600129</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05413074322731904</v>
+        <v>0.05446839661726076</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>381</v>
@@ -5629,19 +5629,19 @@
         <v>297195</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>267871</v>
+        <v>266658</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>332225</v>
+        <v>330646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04139960178053102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.037314668697829</v>
+        <v>0.03714567009918785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04627924912385636</v>
+        <v>0.04605932225113903</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3360831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3337039</v>
+        <v>3335799</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3380821</v>
+        <v>3381131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.965399961334683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9585656435211903</v>
+        <v>0.9582093855688515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9711419010468896</v>
+        <v>0.9712309511432264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5045</v>
@@ -5679,19 +5679,19 @@
         <v>3520673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3497272</v>
+        <v>3496024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3541251</v>
+        <v>3541829</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9521983022194591</v>
+        <v>0.9521983022194592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.945869256772681</v>
+        <v>0.9455316033827392</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.957763797617783</v>
+        <v>0.9579200484739987</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8268</v>
@@ -5700,19 +5700,19 @@
         <v>6881506</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6846476</v>
+        <v>6848055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6910830</v>
+        <v>6912043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.958600398219469</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9537207508761433</v>
+        <v>0.9539406777488605</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9626853313021702</v>
+        <v>0.962854329900812</v>
       </c>
     </row>
     <row r="18">
